--- a/data/emissions_from_fuel.xlsx
+++ b/data/emissions_from_fuel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F02EC06-DD7D-43DA-BB99-7E98049B1122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFFC90-A660-4417-9D97-C156254915BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>type</t>
   </si>
@@ -39,7 +39,43 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>SO2</t>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>PM volatile</t>
+  </si>
+  <si>
+    <t>3.15 kg (Kérosène)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.237 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0148 kg </t>
+  </si>
+  <si>
+    <t>0.00032 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00325 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000092 kg </t>
+  </si>
+  <si>
+    <t>0.00084 kg - assuming 440 ppm</t>
+  </si>
+  <si>
+    <t>0.000114 kg – assuming 600 ppm</t>
   </si>
 </sst>
 </file>
@@ -78,9 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,15 +400,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,28 +420,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1.2370000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>8.4000000000000003E-4</v>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
